--- a/Test/MC_Ssf/T1/Sensors_data_1000013.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000013.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6596828361738674</v>
+        <v>0.617581541602924</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0103716331009256</v>
+        <v>0.01165472789242693</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3221907805558559</v>
+        <v>0.2556635344411948</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.3248448829771267</v>
+        <v>-0.2437500232447711</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03880173049511495</v>
+        <v>0.0364266442247864</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999769459706777</v>
+        <v>0.9993860109431143</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.773073943984099</v>
+        <v>-1.718238314963505</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05622122601577367</v>
+        <v>0.05510948995854664</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2602990031736683</v>
+        <v>0.1928118246054701</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8820643819814539</v>
+        <v>0.9031465311553961</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004967373325005422</v>
+        <v>0.004079406591970138</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0001217777913211648</v>
+        <v>0.0002663125717035086</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.05855720432767242</v>
+        <v>0.9619915592307535</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02756823477203747</v>
+        <v>0.001112999773605328</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9866432967338852</v>
+        <v>0.2943250598310687</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
